--- a/data/profiles/xlsx/bluff/profile 34-2 graph.xlsx
+++ b/data/profiles/xlsx/bluff/profile 34-2 graph.xlsx
@@ -19576,11 +19576,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="87667251"/>
-        <c:axId val="57590875"/>
+        <c:axId val="27936056"/>
+        <c:axId val="80207305"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="87667251"/>
+        <c:axId val="27936056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19615,12 +19615,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57590875"/>
+        <c:crossAx val="80207305"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="57590875"/>
+        <c:axId val="80207305"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19664,7 +19664,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87667251"/>
+        <c:crossAx val="27936056"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
